--- a/data/processed/correlation_matrix_all.xlsx
+++ b/data/processed/correlation_matrix_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snakada/Library/CloudStorage/GoogleDrive-snakada@g.ecc.u-tokyo.ac.jp/マイドライブ/大学/2025/2025 S1S2 Data Science for Public Policy/repo/graspp_2025s_fintech/Data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D279BAFB-DF2A-6841-8589-782836F37CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{57E03220-E0EE-8045-BCC0-5872D788422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16940"/>
   </bookViews>
@@ -583,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +772,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,6 +1061,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1415,12 +1424,12 @@
   <dimension ref="A1:EB131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" ht="409.6">
@@ -2212,7 +2221,7 @@
       </c>
     </row>
     <row r="3" spans="1:132">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="5">
@@ -4956,7 +4965,7 @@
       </c>
     </row>
     <row r="10" spans="1:132">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="5">
@@ -5740,7 +5749,7 @@
       </c>
     </row>
     <row r="12" spans="1:132">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="5">
@@ -9268,7 +9277,7 @@
       </c>
     </row>
     <row r="21" spans="1:132">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="5">
@@ -16320,7 +16329,7 @@
       </c>
     </row>
     <row r="39" spans="1:132">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="5">
@@ -35528,7 +35537,7 @@
       </c>
     </row>
     <row r="88" spans="1:132">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B88" s="5">
@@ -49620,7 +49629,7 @@
       </c>
     </row>
     <row r="124" spans="1:132">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B124" s="5">
@@ -51188,7 +51197,7 @@
       </c>
     </row>
     <row r="128" spans="1:132">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B128" s="5">

--- a/data/processed/correlation_matrix_all.xlsx
+++ b/data/processed/correlation_matrix_all.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snakada/Library/CloudStorage/GoogleDrive-snakada@g.ecc.u-tokyo.ac.jp/マイドライブ/大学/2025/2025 S1S2 Data Science for Public Policy/repo/graspp_2025s_fintech/Data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snakada/Library/CloudStorage/GoogleDrive-snakada@g.ecc.u-tokyo.ac.jp/マイドライブ/大学/2025/2025 S1S2 Data Science for Public Policy/repo/graspp_2025s_fintech/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{57E03220-E0EE-8045-BCC0-5872D788422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDE2CF9F-F697-D946-B230-D7222E8D7952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation_matrix_all" sheetId="1" r:id="rId1"/>
+    <sheet name="graph" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">correlation_matrix_all!$A$1:$EB$131</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -421,7 +423,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1124,6 +1126,407 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E92EC1-A4C7-CAB2-AEB1-9F939A323420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="88900"/>
+          <a:ext cx="5842000" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66326CDC-D63F-4479-949B-9D0C89539B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6883400" y="4864100"/>
+          <a:ext cx="5918200" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133C0644-2427-6F39-655B-041AE1A5564B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="4940300"/>
+          <a:ext cx="5918200" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84E8A2D-4DD9-D909-3BDC-301770C2ACB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692900" y="152400"/>
+          <a:ext cx="5842000" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFAFAC0-E710-8A4E-BBF9-D10319A07305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="19253200"/>
+          <a:ext cx="5918200" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFB52DF-5594-2A4D-9F1E-A70884BBBCD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="14490700"/>
+          <a:ext cx="5930900" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED3FCDD-8CBC-C541-AC17-F135930FDA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="14503400"/>
+          <a:ext cx="5918200" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90959A29-737B-6243-BA2B-29F15A5A4EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="9791700"/>
+          <a:ext cx="5918200" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29886E74-D6B5-2047-A986-0266D75C8F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9652000"/>
+          <a:ext cx="5918200" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1420,10 +1823,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EB131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
@@ -52003,7 +52406,7 @@
       <c r="EB131" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EB131">
+  <autoFilter ref="A1:EB131" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:EB131">
       <sortCondition descending="1" ref="C1:C131"/>
     </sortState>
@@ -52011,4 +52414,20 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6E4AA-6AFF-C64F-BBBA-2D7A678F2DD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>